--- a/database/TestAPITestCase.xlsx
+++ b/database/TestAPITestCase.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
   <si>
     <t>测试项目</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>预期输出</t>
+  </si>
+  <si>
+    <t>测试模块</t>
   </si>
   <si>
     <t>查询发布会</t>
@@ -188,6 +191,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -196,6 +206,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -204,6 +235,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -218,112 +327,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -340,37 +343,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,79 +505,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,61 +523,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,6 +567,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -575,6 +587,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,17 +628,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -637,15 +649,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -654,10 +657,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -666,133 +669,133 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1184,7 +1187,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1228,7 +1231,9 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3"/>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -1236,19 +1241,19 @@
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:13">
       <c r="A2" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -1260,17 +1265,17 @@
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:13">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -1283,17 +1288,17 @@
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:13">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -1306,17 +1311,17 @@
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:13">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -1329,17 +1334,17 @@
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:13">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
@@ -1352,17 +1357,17 @@
     </row>
     <row r="7" ht="43.5" customHeight="1" spans="1:13">
       <c r="A7" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -1375,17 +1380,17 @@
     </row>
     <row r="8" ht="55.5" customHeight="1" spans="1:13">
       <c r="A8" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -1398,17 +1403,17 @@
     </row>
     <row r="9" ht="57" customHeight="1" spans="1:13">
       <c r="A9" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -1421,17 +1426,17 @@
     </row>
     <row r="10" ht="52.5" customHeight="1" spans="1:13">
       <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -1444,17 +1449,17 @@
     </row>
     <row r="11" ht="51.75" customHeight="1" spans="1:13">
       <c r="A11" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -1467,17 +1472,17 @@
     </row>
     <row r="12" ht="35.25" customHeight="1" spans="1:13">
       <c r="A12" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -1490,17 +1495,17 @@
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:13">
       <c r="A13" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -1513,17 +1518,17 @@
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:13">
       <c r="A14" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -1536,17 +1541,17 @@
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:13">
       <c r="A15" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
@@ -1559,17 +1564,17 @@
     </row>
     <row r="16" ht="26.25" customHeight="1" spans="1:13">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
